--- a/Dissertacia/MyWork/DocWorkAsp/Data (version 1).xlsx
+++ b/Dissertacia/MyWork/DocWorkAsp/Data (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasilii\Documents\MyWorks\trunk\Dissertacia\MyWork\DocWorkAsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasily/Documents/MyWork/Dissertacia/MyWork/DocWorkAsp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDD6F4C-CD5A-48A3-8D46-BCB5443A8E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980EF58-92C1-714C-AE24-7B34E6DD1D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37860" windowHeight="14680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,29 +19,17 @@
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -150,6 +138,15 @@
   <si>
     <t>RotSpeed 5</t>
   </si>
+  <si>
+    <t>погрешность</t>
+  </si>
+  <si>
+    <t>расчетные коэфиценты от плолинома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ошибка по кэфицентам </t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,6 +256,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -268,8 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -44459,15 +44460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>514446</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>270710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>527687</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>102052</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>6319</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182262</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44534,16 +44535,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>191691</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>92255</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>115660</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>25412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>75555</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44572,16 +44573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>125331</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>582114</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>421694</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47707,400 +47708,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="D9">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E9">
-            <v>0.1</v>
-          </cell>
-          <cell r="I9">
-            <v>7.4109052228266137E-12</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>0.16</v>
-          </cell>
-          <cell r="I10">
-            <v>3.0237007342392985E-11</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>0.24</v>
-          </cell>
-          <cell r="I11">
-            <v>-1.1148401646288164E-10</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>0.39</v>
-          </cell>
-          <cell r="I12">
-            <v>-2.7221397358445643E-10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.62</v>
-          </cell>
-          <cell r="I13">
-            <v>2.8101965199311962E-11</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.93</v>
-          </cell>
-          <cell r="I14">
-            <v>6.2543403789305785E-10</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>1.44</v>
-          </cell>
-          <cell r="I15">
-            <v>5.251599155542408E-10</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>2.2000000000000002</v>
-          </cell>
-          <cell r="I16">
-            <v>6.0368021692625007E-10</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>3.3</v>
-          </cell>
-          <cell r="I17">
-            <v>-8.4388007692837164E-10</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>0.03</v>
-          </cell>
-          <cell r="E18">
-            <v>4.9400000000000004</v>
-          </cell>
-          <cell r="I18">
-            <v>-1.6524692725283785E-9</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E20">
-            <v>0.17</v>
-          </cell>
-          <cell r="I20">
-            <v>-3.6460001684446297E-12</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>0.22</v>
-          </cell>
-          <cell r="I21">
-            <v>3.3625990880636891E-11</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="E22">
-            <v>0.3</v>
-          </cell>
-          <cell r="I22">
-            <v>-8.5110252179276813E-12</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>0.36</v>
-          </cell>
-          <cell r="I23">
-            <v>-2.966898948741914E-11</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>0.4</v>
-          </cell>
-          <cell r="I24">
-            <v>5.7070459469343859E-12</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>0.45</v>
-          </cell>
-          <cell r="I25">
-            <v>-1.2648798675130024E-10</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>0.47</v>
-          </cell>
-          <cell r="I26">
-            <v>-2.3004004257032307E-10</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>0.49</v>
-          </cell>
-          <cell r="I27">
-            <v>1.4252199420639045E-10</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>0.5</v>
-          </cell>
-          <cell r="I28">
-            <v>-5.8216897969032289E-10</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>0.03</v>
-          </cell>
-          <cell r="E29">
-            <v>0.53</v>
-          </cell>
-          <cell r="I29">
-            <v>5.5271898169451106E-10</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>0.15</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="E32">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="E33">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>0.31</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>0.44</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>0.47</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="D40">
-            <v>0.03</v>
-          </cell>
-          <cell r="E40">
-            <v>0.49</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="D42">
-            <v>3.0000000000000001E-3</v>
-          </cell>
-          <cell r="E42">
-            <v>0.26</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="D43">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="D44">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-          <cell r="E44">
-            <v>0.37</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="D45">
-            <v>1.2E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="D46">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="D47">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="D48">
-            <v>2.1000000000000001E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="D49">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.56999999999999995</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="D50">
-            <v>2.7E-2</v>
-          </cell>
-          <cell r="E50">
-            <v>0.6</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="D51">
-            <v>0.03</v>
-          </cell>
-          <cell r="E51">
-            <v>0.65</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48372,17 +47979,17 @@
       <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
       <c r="F2" s="1">
         <v>1500</v>
       </c>
@@ -48390,7 +47997,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="2:40" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" s="2" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -48403,10 +48010,10 @@
       <c r="F3" s="2">
         <v>0.82</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="17"/>
+      <c r="I3" s="19"/>
       <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
@@ -48417,7 +48024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -48485,7 +48092,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -48539,7 +48146,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -48601,7 +48208,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -48654,7 +48261,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -48716,7 +48323,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -48769,7 +48376,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -48831,7 +48438,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -48893,7 +48500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -48955,7 +48562,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -49017,7 +48624,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AJ14" s="1">
         <v>4</v>
       </c>
@@ -49031,7 +48638,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
       <c r="P15" s="1">
         <v>3</v>
       </c>
@@ -49060,7 +48667,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
       <c r="G16" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -49101,7 +48708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G17" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -49142,7 +48749,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G18" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -49183,7 +48790,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="19" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G19" s="1">
         <v>1.2E-2</v>
       </c>
@@ -49224,7 +48831,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="20" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G20" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -49265,7 +48872,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G21" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -49306,7 +48913,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G22" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -49347,7 +48954,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G23" s="1">
         <v>2.4E-2</v>
       </c>
@@ -49388,7 +48995,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G24" s="1">
         <v>2.7E-2</v>
       </c>
@@ -49429,7 +49036,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G25" s="1">
         <v>0.03</v>
       </c>
@@ -49455,7 +49062,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ26" s="1">
         <v>5</v>
       </c>
@@ -49469,7 +49076,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="27" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ27" s="1">
         <v>5</v>
       </c>
@@ -49483,7 +49090,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="28" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ28" s="1">
         <v>5</v>
       </c>
@@ -49497,7 +49104,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="29" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ29" s="1">
         <v>5</v>
       </c>
@@ -49511,7 +49118,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="30" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ30" s="1">
         <v>5</v>
       </c>
@@ -49525,7 +49132,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="31" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ31" s="1">
         <v>5</v>
       </c>
@@ -49539,7 +49146,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="32" spans="7:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AJ32" s="1">
         <v>5</v>
       </c>
@@ -49553,7 +49160,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="33" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D33" s="1">
         <v>1500</v>
       </c>
@@ -49582,7 +49189,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="34" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D34" s="1">
         <v>3.2263257296914198E-2</v>
       </c>
@@ -49599,7 +49206,7 @@
         <v>1.9357954378152301E-2</v>
       </c>
     </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D35" s="1">
         <v>0.29036931567225399</v>
       </c>
@@ -49616,7 +49223,7 @@
         <v>0.174221589403355</v>
       </c>
     </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D36" s="1">
         <v>0.80658143242296798</v>
       </c>
@@ -49633,7 +49240,7 @@
         <v>0.48394885945375399</v>
       </c>
     </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D37" s="1">
         <v>1.5808996075489301</v>
       </c>
@@ -49650,7 +49257,7 @@
         <v>0.94853976452931898</v>
       </c>
     </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D38" s="1">
         <v>2.06484846700251</v>
       </c>
@@ -49667,7 +49274,7 @@
         <v>1.23890908020174</v>
       </c>
     </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D39" s="1">
         <v>2.6133238410502702</v>
       </c>
@@ -49684,7 +49291,7 @@
         <v>1.5679943046300799</v>
       </c>
     </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
       <c r="D40" s="1">
         <v>3.2263257296918701</v>
       </c>
@@ -49701,25 +49308,25 @@
         <v>1.9357954378150199</v>
       </c>
     </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="3:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="17" t="s">
+    <row r="47" spans="3:40" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
-    <row r="48" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C48" s="17"/>
+    <row r="48" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C48" s="19"/>
       <c r="D48" s="1">
         <v>1500</v>
       </c>
@@ -49736,7 +49343,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="1">
         <v>3</v>
       </c>
@@ -49756,7 +49363,7 @@
         <v>1.55250038820542E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="1">
         <v>6</v>
       </c>
@@ -49776,7 +49383,7 @@
         <v>6.2100015528216798E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="1">
         <v>9</v>
       </c>
@@ -49796,7 +49403,7 @@
         <v>0.13972503493848701</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="1">
         <v>12</v>
       </c>
@@ -49816,7 +49423,7 @@
         <v>0.248400062112867</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" s="1">
         <v>15</v>
       </c>
@@ -49836,7 +49443,7 @@
         <v>0.38812509705140003</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="1">
         <v>18</v>
       </c>
@@ -49856,7 +49463,7 @@
         <v>0.55890013975395003</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="1">
         <v>21</v>
       </c>
@@ -49876,7 +49483,7 @@
         <v>0.76072519022066398</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="1">
         <v>24</v>
       </c>
@@ -49896,7 +49503,7 @@
         <v>0.99360024845146899</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="1">
         <v>27</v>
       </c>
@@ -49916,7 +49523,7 @@
         <v>1.25752531444647</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>30</v>
       </c>
@@ -49936,25 +49543,25 @@
         <v>1.5525003882056001</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="17" t="s">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="17"/>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="19"/>
       <c r="D63" s="1">
         <v>1500</v>
       </c>
@@ -49971,7 +49578,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" s="1">
         <v>3</v>
       </c>
@@ -49991,7 +49598,7 @@
         <v>2.1955671045252201E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="1">
         <v>6</v>
       </c>
@@ -50011,7 +49618,7 @@
         <v>8.7822684181008998E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="1">
         <v>9</v>
       </c>
@@ -50031,7 +49638,7 @@
         <v>0.19760103940725701</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="1">
         <v>12</v>
       </c>
@@ -50051,7 +49658,7 @@
         <v>0.35129073672403599</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C68" s="1">
         <v>15</v>
       </c>
@@ -50071,7 +49678,7 @@
         <v>0.54889177613131901</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C69" s="1">
         <v>18</v>
       </c>
@@ -50091,7 +49698,7 @@
         <v>0.79040415762902905</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C70" s="1">
         <v>21</v>
       </c>
@@ -50111,7 +49718,7 @@
         <v>1.0758278812174</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" s="1">
         <v>24</v>
       </c>
@@ -50131,7 +49738,7 @@
         <v>1.40516294689614</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="1">
         <v>27</v>
       </c>
@@ -50151,7 +49758,7 @@
         <v>1.77840935466551</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="1">
         <v>30</v>
       </c>
@@ -50171,25 +49778,25 @@
         <v>2.19556710452528</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="17" t="s">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="17"/>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="19"/>
       <c r="D80" s="1">
         <v>1500</v>
       </c>
@@ -50206,7 +49813,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
         <v>3</v>
       </c>
@@ -50226,7 +49833,7 @@
         <v>2.6890095510261201E-2</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C82" s="1">
         <v>6</v>
       </c>
@@ -50246,7 +49853,7 @@
         <v>0.107560382041045</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C83" s="1">
         <v>9</v>
       </c>
@@ -50266,7 +49873,7 @@
         <v>0.24201085959235299</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C84" s="1">
         <v>12</v>
       </c>
@@ -50286,7 +49893,7 @@
         <v>0.43024152816417899</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <v>15</v>
       </c>
@@ -50306,7 +49913,7 @@
         <v>0.67225238775650598</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C86" s="1">
         <v>18</v>
       </c>
@@ -50326,7 +49933,7 @@
         <v>0.96804343836941398</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" s="1">
         <v>21</v>
       </c>
@@ -50346,7 +49953,7 @@
         <v>1.3176146800028099</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C88" s="1">
         <v>24</v>
       </c>
@@ -50366,7 +49973,7 @@
         <v>1.72096611265671</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C89" s="1">
         <v>27</v>
       </c>
@@ -50386,7 +49993,7 @@
         <v>2.1780977363312202</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C90" s="1">
         <v>30</v>
       </c>
@@ -50406,29 +50013,29 @@
         <v>2.6890095510260199</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="17" t="s">
+    <row r="94" spans="3:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18" t="s">
+      <c r="E94" s="19"/>
+      <c r="F94" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="17"/>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" s="19"/>
       <c r="D95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="18"/>
+      <c r="F95" s="20"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C96" s="1">
         <v>3</v>
       </c>
@@ -50443,7 +50050,7 @@
         <v>6.3407214924579514E-2</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C97" s="1">
         <v>6</v>
       </c>
@@ -50458,7 +50065,7 @@
         <v>1.3628859698318008E-2</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C98" s="1">
         <v>9</v>
       </c>
@@ -50473,7 +50080,7 @@
         <v>8.9335065678776027E-2</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C99" s="1">
         <v>12</v>
       </c>
@@ -50488,7 +50095,7 @@
         <v>0.19548456120672797</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C100" s="1">
         <v>15</v>
       </c>
@@ -50503,7 +50110,7 @@
         <v>0.29481962688549701</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C101" s="1">
         <v>18</v>
       </c>
@@ -50518,7 +50125,7 @@
         <v>0.38734026271511002</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C102" s="1">
         <v>21</v>
       </c>
@@ -50533,7 +50140,7 @@
         <v>0.35304646869567002</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C103" s="1">
         <v>24</v>
       </c>
@@ -50548,7 +50155,7 @@
         <v>0.14193824482690998</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C104" s="1">
         <v>27</v>
       </c>
@@ -50563,7 +50170,7 @@
         <v>0.33598440889112968</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C105" s="1">
         <v>30</v>
       </c>
@@ -50605,23 +50212,23 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
       <c r="H1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="3:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -50644,14 +50251,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="19">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="21">
         <v>3</v>
       </c>
       <c r="D3" s="5">
         <v>0.1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <f>(SUM(D3:D12))/10</f>
         <v>9.9999999999999992E-2</v>
       </c>
@@ -50659,140 +50266,140 @@
         <f t="shared" ref="F3:F12" si="0">ABS(D3-$E$3)</f>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="21">
         <f>SUM(F3:F12)/10</f>
         <v>6.0000000000000071E-3</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="21">
         <f>G3+H1</f>
         <v>9.000000000000008E-3</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="19"/>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="21"/>
       <c r="D4" s="5">
         <v>0.11</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="19"/>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="21"/>
       <c r="D5" s="5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="19"/>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="21"/>
       <c r="D6" s="5">
         <v>0.11</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="21"/>
       <c r="D7" s="5">
         <v>0.09</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="19"/>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="21"/>
       <c r="D8" s="5">
         <v>0.1</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="21"/>
       <c r="D9" s="5">
         <v>0.1</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>1.3877787807814457E-17</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="21"/>
       <c r="D10" s="5">
         <v>0.11</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="21"/>
       <c r="D11" s="5">
         <v>0.09</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="19"/>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="21"/>
       <c r="D12" s="5">
         <v>0.09</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="19">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="21">
         <v>6</v>
       </c>
       <c r="D13" s="5">
         <v>0.16</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="21">
         <f>(SUM(D13:D22))/10</f>
         <v>0.16099999999999998</v>
       </c>
@@ -50800,140 +50407,140 @@
         <f>ABS(D13-$E$13)</f>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="21">
         <f>SUM(F13:F22)/10</f>
         <v>5.3999999999999933E-3</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="21">
         <f>G13+$H$1</f>
         <v>8.3999999999999943E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="21"/>
       <c r="D14" s="5">
         <v>0.15</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="6">
         <f t="shared" ref="F14:F22" si="1">ABS(D14-$E$13)</f>
         <v>1.0999999999999982E-2</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="19"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="21"/>
       <c r="D15" s="5">
         <v>0.16</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="19"/>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="21"/>
       <c r="D16" s="5">
         <v>0.17</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="19"/>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="21"/>
       <c r="D17" s="5">
         <v>0.17</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="19"/>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="21"/>
       <c r="D18" s="5">
         <v>0.16</v>
       </c>
-      <c r="E18" s="19"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="19"/>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="21"/>
       <c r="D19" s="5">
         <v>0.16</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="21"/>
       <c r="D20" s="5">
         <v>0.15</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>1.0999999999999982E-2</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="21"/>
       <c r="D21" s="5">
         <v>0.17</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000357E-3</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="19"/>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="21"/>
       <c r="D22" s="5">
         <v>0.16</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>9.9999999999997313E-4</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="19">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="21">
         <v>9</v>
       </c>
       <c r="D23" s="5">
         <v>0.24</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="21">
         <f>(SUM(D23:D32))/10</f>
         <v>0.24199999999999999</v>
       </c>
@@ -50941,140 +50548,140 @@
         <f>ABS(D23-$E$23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="21">
         <f>SUM(F23:F32)/10</f>
         <v>4.8000000000000013E-3</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="21">
         <f>G23+$H$1</f>
         <v>7.8000000000000014E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="21"/>
       <c r="D24" s="5">
         <v>0.24</v>
       </c>
-      <c r="E24" s="19"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="6">
         <f t="shared" ref="F24:F32" si="2">ABS(D24-$E$23)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="19"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="21"/>
       <c r="D25" s="5">
         <v>0.23</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>1.1999999999999983E-2</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="19"/>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="21"/>
       <c r="D26" s="5">
         <v>0.24</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="21"/>
       <c r="D27" s="5">
         <v>0.25</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="21"/>
       <c r="D28" s="5">
         <v>0.25</v>
       </c>
-      <c r="E28" s="19"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="19"/>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="21"/>
       <c r="D29" s="5">
         <v>0.25</v>
       </c>
-      <c r="E29" s="19"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="19"/>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="21"/>
       <c r="D30" s="5">
         <v>0.24</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="I30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="21"/>
       <c r="D31" s="5">
         <v>0.24</v>
       </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="21"/>
       <c r="D32" s="5">
         <v>0.24</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="19">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="21">
         <v>12</v>
       </c>
       <c r="D33" s="5">
         <v>0.38</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="21">
         <f>(SUM(D33:D42))/10</f>
         <v>0.38900000000000001</v>
       </c>
@@ -51082,140 +50689,140 @@
         <f>ABS(D33-$E$33)</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="21">
         <f>SUM(F33:F42)/10</f>
         <v>7.2000000000000067E-3</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="21">
         <f>G33+$H$1</f>
         <v>1.0200000000000008E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="21"/>
       <c r="D34" s="5">
         <v>0.38</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="6">
         <f t="shared" ref="F34:F42" si="3">ABS(D34-$E$33)</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="I34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="I34" s="21"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="19"/>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="21"/>
       <c r="D35" s="5">
         <v>0.38</v>
       </c>
-      <c r="E35" s="19"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" s="21"/>
       <c r="D36" s="5">
         <v>0.39</v>
       </c>
-      <c r="E36" s="19"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="I36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="I36" s="21"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="19"/>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" s="21"/>
       <c r="D37" s="5">
         <v>0.4</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="6">
         <f t="shared" si="3"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="19"/>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" s="21"/>
       <c r="D38" s="5">
         <v>0.39</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="I38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="19"/>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="21"/>
       <c r="D39" s="5">
         <v>0.39</v>
       </c>
-      <c r="E39" s="19"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="I39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="19"/>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" s="21"/>
       <c r="D40" s="5">
         <v>0.38</v>
       </c>
-      <c r="E40" s="19"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="21"/>
       <c r="D41" s="5">
         <v>0.4</v>
       </c>
-      <c r="E41" s="19"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="I41" s="21"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="19"/>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" s="21"/>
       <c r="D42" s="5">
         <v>0.4</v>
       </c>
-      <c r="E42" s="19"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="I42" s="21"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="19">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43" s="21">
         <v>15</v>
       </c>
       <c r="D43" s="5">
         <v>0.6</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="21">
         <f>(SUM(D43:D52))/10</f>
         <v>0.6140000000000001</v>
       </c>
@@ -51223,140 +50830,140 @@
         <f>ABS(D43-$E$43)</f>
         <v>1.4000000000000123E-2</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="21">
         <f>SUM(F43:F52)/10</f>
         <v>7.1999999999999842E-3</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="21">
         <f>G43+$H$1</f>
         <v>1.0199999999999983E-2</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="19"/>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" s="21"/>
       <c r="D44" s="5">
         <v>0.61</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="6">
         <f t="shared" ref="F44:F52" si="4">ABS(D44-$E$43)</f>
         <v>4.0000000000001146E-3</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="19"/>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" s="21"/>
       <c r="D45" s="5">
         <v>0.62</v>
       </c>
-      <c r="E45" s="19"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="G45" s="21"/>
+      <c r="I45" s="21"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="19"/>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="21"/>
       <c r="D46" s="5">
         <v>0.62</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="I46" s="19"/>
+      <c r="G46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="19"/>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="21"/>
       <c r="D47" s="5">
         <v>0.62</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="I47" s="21"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="19"/>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" s="21"/>
       <c r="D48" s="5">
         <v>0.62</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="I48" s="19"/>
+      <c r="G48" s="21"/>
+      <c r="I48" s="21"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="19"/>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" s="21"/>
       <c r="D49" s="5">
         <v>0.62</v>
       </c>
-      <c r="E49" s="19"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="I49" s="19"/>
+      <c r="G49" s="21"/>
+      <c r="I49" s="21"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="21"/>
       <c r="D50" s="5">
         <v>0.62</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="6">
         <f t="shared" si="4"/>
         <v>5.9999999999998943E-3</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="G50" s="21"/>
+      <c r="I50" s="21"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="19"/>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="21"/>
       <c r="D51" s="5">
         <v>0.6</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="6">
         <f t="shared" si="4"/>
         <v>1.4000000000000123E-2</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="G51" s="21"/>
+      <c r="I51" s="21"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="19"/>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C52" s="21"/>
       <c r="D52" s="5">
         <v>0.61</v>
       </c>
-      <c r="E52" s="19"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="6">
         <f t="shared" si="4"/>
         <v>4.0000000000001146E-3</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="G52" s="21"/>
+      <c r="I52" s="21"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="19">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C53" s="21">
         <v>18</v>
       </c>
       <c r="D53" s="5">
         <v>0.93</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="21">
         <f>(SUM(D53:D62))/10</f>
         <v>0.94199999999999995</v>
       </c>
@@ -51364,140 +50971,140 @@
         <f>ABS(D53-$E$53)</f>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="21">
         <f>SUM(F53:F62)/10</f>
         <v>6.3999999999999838E-3</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I53" s="21">
         <f>G53+$H$1</f>
         <v>9.3999999999999848E-3</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="19"/>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C54" s="21"/>
       <c r="D54" s="5">
         <v>0.94</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="6">
         <f t="shared" ref="F54:F62" si="5">ABS(D54-$E$53)</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="I54" s="19"/>
+      <c r="G54" s="21"/>
+      <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="19"/>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C55" s="21"/>
       <c r="D55" s="5">
         <v>0.94</v>
       </c>
-      <c r="E55" s="19"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="6">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="I55" s="21"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="19"/>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="21"/>
       <c r="D56" s="5">
         <v>0.94</v>
       </c>
-      <c r="E56" s="19"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="6">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="I56" s="19"/>
+      <c r="G56" s="21"/>
+      <c r="I56" s="21"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="19"/>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="21"/>
       <c r="D57" s="5">
         <v>0.95</v>
       </c>
-      <c r="E57" s="19"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="6">
         <f t="shared" si="5"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="I57" s="19"/>
+      <c r="G57" s="21"/>
+      <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="19"/>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C58" s="21"/>
       <c r="D58" s="5">
         <v>0.95</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="6">
         <f t="shared" si="5"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="G58" s="21"/>
+      <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="19"/>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C59" s="21"/>
       <c r="D59" s="5">
         <v>0.95</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="6">
         <f t="shared" si="5"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="I59" s="19"/>
+      <c r="G59" s="21"/>
+      <c r="I59" s="21"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="19"/>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C60" s="21"/>
       <c r="D60" s="5">
         <v>0.93</v>
       </c>
-      <c r="E60" s="19"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="6">
         <f t="shared" si="5"/>
         <v>1.19999999999999E-2</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="I60" s="19"/>
+      <c r="G60" s="21"/>
+      <c r="I60" s="21"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="19"/>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C61" s="21"/>
       <c r="D61" s="5">
         <v>0.94</v>
       </c>
-      <c r="E61" s="19"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="6">
         <f t="shared" si="5"/>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="G61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="G61" s="21"/>
+      <c r="I61" s="21"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="19"/>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C62" s="21"/>
       <c r="D62" s="5">
         <v>0.95</v>
       </c>
-      <c r="E62" s="19"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="6">
         <f t="shared" si="5"/>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="G62" s="21"/>
+      <c r="I62" s="21"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="19">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C63" s="21">
         <v>21</v>
       </c>
       <c r="D63" s="5">
         <v>1.43</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="21">
         <f>(SUM(D63:D72))/10</f>
         <v>1.4449999999999998</v>
       </c>
@@ -51505,140 +51112,140 @@
         <f>ABS(D63-$E$63)</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G63" s="21">
         <f>SUM(F63:F72)/10</f>
         <v>1.0000000000000031E-2</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="21">
         <f>G63+$H$1</f>
         <v>1.3000000000000032E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="19"/>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C64" s="21"/>
       <c r="D64" s="5">
         <v>1.43</v>
       </c>
-      <c r="E64" s="19"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="6">
         <f t="shared" ref="F64:F72" si="6">ABS(D64-$E$63)</f>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="G64" s="21"/>
+      <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="19"/>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C65" s="21"/>
       <c r="D65" s="5">
         <v>1.43</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="6">
         <f t="shared" si="6"/>
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="I65" s="19"/>
+      <c r="G65" s="21"/>
+      <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="19"/>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C66" s="21"/>
       <c r="D66" s="5">
         <v>1.44</v>
       </c>
-      <c r="E66" s="19"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="6">
         <f t="shared" si="6"/>
         <v>4.9999999999998934E-3</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="I66" s="19"/>
+      <c r="G66" s="21"/>
+      <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="19"/>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C67" s="21"/>
       <c r="D67" s="5">
         <v>1.45</v>
       </c>
-      <c r="E67" s="19"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="6">
         <f t="shared" si="6"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="I67" s="19"/>
+      <c r="G67" s="21"/>
+      <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="19"/>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C68" s="21"/>
       <c r="D68" s="5">
         <v>1.46</v>
       </c>
-      <c r="E68" s="19"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="6">
         <f t="shared" si="6"/>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="I68" s="19"/>
+      <c r="G68" s="21"/>
+      <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="19"/>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C69" s="21"/>
       <c r="D69" s="5">
         <v>1.46</v>
       </c>
-      <c r="E69" s="19"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="6">
         <f t="shared" si="6"/>
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="I69" s="19"/>
+      <c r="G69" s="21"/>
+      <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="19"/>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C70" s="21"/>
       <c r="D70" s="5">
         <v>1.45</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="6">
         <f t="shared" si="6"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="I70" s="19"/>
+      <c r="G70" s="21"/>
+      <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="19"/>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C71" s="21"/>
       <c r="D71" s="5">
         <v>1.45</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="6">
         <f t="shared" si="6"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="I71" s="19"/>
+      <c r="G71" s="21"/>
+      <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="19"/>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C72" s="21"/>
       <c r="D72" s="5">
         <v>1.45</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="6">
         <f t="shared" si="6"/>
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="I72" s="19"/>
+      <c r="G72" s="21"/>
+      <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="19">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C73" s="21">
         <v>24</v>
       </c>
       <c r="D73" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73" s="21">
         <f>(SUM(D73:D82))/10</f>
         <v>2.1949999999999994</v>
       </c>
@@ -51646,140 +51253,140 @@
         <f>ABS(D73-$E$73)</f>
         <v>1.4999999999999236E-2</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G73" s="21">
         <f>SUM(F73:F82)/10</f>
         <v>7.0000000000003393E-3</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I73" s="21">
         <f>G73+$H$1</f>
         <v>1.0000000000000338E-2</v>
       </c>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="19"/>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C74" s="21"/>
       <c r="D74" s="5">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E74" s="19"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="6">
         <f t="shared" ref="F74:F82" si="7">ABS(D74-$E$73)</f>
         <v>1.4999999999999236E-2</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="I74" s="19"/>
+      <c r="G74" s="21"/>
+      <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="19"/>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C75" s="21"/>
       <c r="D75" s="5">
         <v>2.19</v>
       </c>
-      <c r="E75" s="19"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="6">
         <f t="shared" si="7"/>
         <v>4.9999999999994493E-3</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="I75" s="19"/>
+      <c r="G75" s="21"/>
+      <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="19"/>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C76" s="21"/>
       <c r="D76" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E76" s="19"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="I76" s="19"/>
+      <c r="G76" s="21"/>
+      <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="19"/>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C77" s="21"/>
       <c r="D77" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E77" s="19"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="I77" s="19"/>
+      <c r="G77" s="21"/>
+      <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="19"/>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C78" s="21"/>
       <c r="D78" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E78" s="19"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="G78" s="21"/>
+      <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="19"/>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C79" s="21"/>
       <c r="D79" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="I79" s="19"/>
+      <c r="G79" s="21"/>
+      <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="19"/>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C80" s="21"/>
       <c r="D80" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E80" s="19"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="I80" s="19"/>
+      <c r="G80" s="21"/>
+      <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="19"/>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C81" s="21"/>
       <c r="D81" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E81" s="19"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="I81" s="19"/>
+      <c r="G81" s="21"/>
+      <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="19"/>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C82" s="21"/>
       <c r="D82" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E82" s="19"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="6">
         <f t="shared" si="7"/>
         <v>5.0000000000007816E-3</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="I82" s="19"/>
+      <c r="G82" s="21"/>
+      <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="19">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C83" s="21">
         <v>27</v>
       </c>
       <c r="D83" s="5">
         <v>3.3</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="21">
         <f>(SUM(D83:D92))/10</f>
         <v>3.3090000000000002</v>
       </c>
@@ -51787,140 +51394,140 @@
         <f>ABS(D83-$E$83)</f>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="21">
         <f>SUM(F83:F92)/10</f>
         <v>9.0000000000000305E-3</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I83" s="21">
         <f>G83+$H$1</f>
         <v>1.2000000000000031E-2</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="19"/>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C84" s="21"/>
       <c r="D84" s="5">
         <v>3.32</v>
       </c>
-      <c r="E84" s="19"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="6">
         <f t="shared" ref="F84:F92" si="8">ABS(D84-$E$83)</f>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="I84" s="19"/>
+      <c r="G84" s="21"/>
+      <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="19"/>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="21"/>
       <c r="D85" s="5">
         <v>3.31</v>
       </c>
-      <c r="E85" s="19"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="6">
         <f t="shared" si="8"/>
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="I85" s="19"/>
+      <c r="G85" s="21"/>
+      <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="19"/>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="21"/>
       <c r="D86" s="5">
         <v>3.32</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="6">
         <f t="shared" si="8"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="G86" s="21"/>
+      <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="19"/>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="21"/>
       <c r="D87" s="5">
         <v>3.32</v>
       </c>
-      <c r="E87" s="19"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="6">
         <f t="shared" si="8"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="I87" s="19"/>
+      <c r="G87" s="21"/>
+      <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="19"/>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C88" s="21"/>
       <c r="D88" s="5">
         <v>3.32</v>
       </c>
-      <c r="E88" s="19"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="6">
         <f t="shared" si="8"/>
         <v>1.0999999999999677E-2</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="I88" s="19"/>
+      <c r="G88" s="21"/>
+      <c r="I88" s="21"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="19"/>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C89" s="21"/>
       <c r="D89" s="5">
         <v>3.3</v>
       </c>
-      <c r="E89" s="19"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="6">
         <f t="shared" si="8"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G89" s="19"/>
-      <c r="I89" s="19"/>
+      <c r="G89" s="21"/>
+      <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="19"/>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C90" s="21"/>
       <c r="D90" s="5">
         <v>3.3</v>
       </c>
-      <c r="E90" s="19"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="6">
         <f t="shared" si="8"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G90" s="19"/>
-      <c r="I90" s="19"/>
+      <c r="G90" s="21"/>
+      <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="19"/>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C91" s="21"/>
       <c r="D91" s="5">
         <v>3.3</v>
       </c>
-      <c r="E91" s="19"/>
+      <c r="E91" s="21"/>
       <c r="F91" s="6">
         <f t="shared" si="8"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G91" s="19"/>
-      <c r="I91" s="19"/>
+      <c r="G91" s="21"/>
+      <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="19"/>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C92" s="21"/>
       <c r="D92" s="5">
         <v>3.3</v>
       </c>
-      <c r="E92" s="19"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="6">
         <f t="shared" si="8"/>
         <v>9.0000000000003411E-3</v>
       </c>
-      <c r="G92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="G92" s="21"/>
+      <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="19">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C93" s="21">
         <v>30</v>
       </c>
       <c r="D93" s="5">
         <v>4.97</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="21">
         <f>(SUM(D93:D102))/10</f>
         <v>4.9689999999999994</v>
       </c>
@@ -51928,164 +51535,134 @@
         <f>ABS(D93-$E$93)</f>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="21">
         <f>SUM(F93:F102)/10</f>
         <v>3.6000000000002254E-3</v>
       </c>
-      <c r="I93" s="19">
+      <c r="I93" s="21">
         <f>G93+$H$1</f>
         <v>6.6000000000002255E-3</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="19"/>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C94" s="21"/>
       <c r="D94" s="5">
         <v>4.97</v>
       </c>
-      <c r="E94" s="19"/>
+      <c r="E94" s="21"/>
       <c r="F94" s="6">
         <f t="shared" ref="F94:F102" si="9">ABS(D94-$E$93)</f>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="G94" s="21"/>
+      <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="19"/>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C95" s="21"/>
       <c r="D95" s="5">
         <v>4.97</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="21"/>
       <c r="F95" s="6">
         <f t="shared" si="9"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G95" s="19"/>
-      <c r="I95" s="19"/>
+      <c r="G95" s="21"/>
+      <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="19"/>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C96" s="21"/>
       <c r="D96" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="E96" s="19"/>
+      <c r="E96" s="21"/>
       <c r="F96" s="6">
         <f t="shared" si="9"/>
         <v>1.1000000000001009E-2</v>
       </c>
-      <c r="G96" s="19"/>
-      <c r="I96" s="19"/>
+      <c r="G96" s="21"/>
+      <c r="I96" s="21"/>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="19"/>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C97" s="21"/>
       <c r="D97" s="5">
         <v>4.97</v>
       </c>
-      <c r="E97" s="19"/>
+      <c r="E97" s="21"/>
       <c r="F97" s="6">
         <f t="shared" si="9"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G97" s="19"/>
-      <c r="I97" s="19"/>
+      <c r="G97" s="21"/>
+      <c r="I97" s="21"/>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="19"/>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C98" s="21"/>
       <c r="D98" s="5">
         <v>4.96</v>
       </c>
-      <c r="E98" s="19"/>
+      <c r="E98" s="21"/>
       <c r="F98" s="6">
         <f t="shared" si="9"/>
         <v>8.9999999999994529E-3</v>
       </c>
-      <c r="G98" s="19"/>
-      <c r="I98" s="19"/>
+      <c r="G98" s="21"/>
+      <c r="I98" s="21"/>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="19"/>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C99" s="21"/>
       <c r="D99" s="5">
         <v>4.96</v>
       </c>
-      <c r="E99" s="19"/>
+      <c r="E99" s="21"/>
       <c r="F99" s="6">
         <f t="shared" si="9"/>
         <v>8.9999999999994529E-3</v>
       </c>
-      <c r="G99" s="19"/>
-      <c r="I99" s="19"/>
+      <c r="G99" s="21"/>
+      <c r="I99" s="21"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="19"/>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C100" s="21"/>
       <c r="D100" s="5">
         <v>4.97</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="21"/>
       <c r="F100" s="6">
         <f t="shared" si="9"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G100" s="19"/>
-      <c r="I100" s="19"/>
+      <c r="G100" s="21"/>
+      <c r="I100" s="21"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="19"/>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C101" s="21"/>
       <c r="D101" s="5">
         <v>4.97</v>
       </c>
-      <c r="E101" s="19"/>
+      <c r="E101" s="21"/>
       <c r="F101" s="6">
         <f t="shared" si="9"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G101" s="19"/>
-      <c r="I101" s="19"/>
+      <c r="G101" s="21"/>
+      <c r="I101" s="21"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="19"/>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C102" s="21"/>
       <c r="D102" s="5">
         <v>4.97</v>
       </c>
-      <c r="E102" s="19"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="6">
         <f t="shared" si="9"/>
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="I102" s="19"/>
+      <c r="G102" s="21"/>
+      <c r="I102" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:I62"/>
-    <mergeCell ref="I63:I72"/>
-    <mergeCell ref="I73:I82"/>
-    <mergeCell ref="I83:I92"/>
-    <mergeCell ref="I93:I102"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="I13:I22"/>
-    <mergeCell ref="I23:I32"/>
-    <mergeCell ref="I33:I42"/>
-    <mergeCell ref="I43:I52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="E53:E62"/>
-    <mergeCell ref="E63:E72"/>
-    <mergeCell ref="E73:E82"/>
-    <mergeCell ref="E83:E92"/>
-    <mergeCell ref="E93:E102"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E33:E42"/>
-    <mergeCell ref="E43:E52"/>
     <mergeCell ref="C63:C72"/>
     <mergeCell ref="C73:C82"/>
     <mergeCell ref="C83:C92"/>
@@ -52096,6 +51673,36 @@
     <mergeCell ref="C33:C42"/>
     <mergeCell ref="C43:C52"/>
     <mergeCell ref="C53:C62"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E33:E42"/>
+    <mergeCell ref="E43:E52"/>
+    <mergeCell ref="E53:E62"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="E73:E82"/>
+    <mergeCell ref="E83:E92"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="I13:I22"/>
+    <mergeCell ref="I23:I32"/>
+    <mergeCell ref="I33:I42"/>
+    <mergeCell ref="I43:I52"/>
+    <mergeCell ref="I53:I62"/>
+    <mergeCell ref="I63:I72"/>
+    <mergeCell ref="I73:I82"/>
+    <mergeCell ref="I83:I92"/>
+    <mergeCell ref="I93:I102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -52111,13 +51718,13 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="9.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
@@ -52125,640 +51732,640 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="19">
+    <row r="3" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="21">
         <v>3</v>
       </c>
       <c r="K3" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J4" s="19"/>
+    <row r="4" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="21"/>
       <c r="K4" s="5">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="19"/>
+    <row r="5" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="21"/>
       <c r="K5" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="19"/>
+    <row r="6" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="21"/>
       <c r="K6" s="5">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J7" s="19"/>
+    <row r="7" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="21"/>
       <c r="K7" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="19"/>
+    <row r="8" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="21"/>
       <c r="K8" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="19"/>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="21"/>
       <c r="K9" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="19"/>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="21"/>
       <c r="K10" s="5">
         <v>0.11</v>
       </c>
     </row>
-    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="19"/>
+    <row r="11" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="21"/>
       <c r="K11" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="19"/>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="21"/>
       <c r="K12" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J13" s="19"/>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="21"/>
       <c r="K13" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="19">
+    <row r="15" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="21">
         <v>6</v>
       </c>
       <c r="K15" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="16" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J16" s="19"/>
+    <row r="16" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="21"/>
       <c r="K16" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="19"/>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="21"/>
       <c r="K17" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="19"/>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="21"/>
       <c r="K18" s="5">
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="19"/>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="21"/>
       <c r="K19" s="5">
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="19"/>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="21"/>
       <c r="K20" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="19"/>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="21"/>
       <c r="K21" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="19"/>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="21"/>
       <c r="K22" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="19"/>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J23" s="21"/>
       <c r="K23" s="5">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="19"/>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="21"/>
       <c r="K24" s="5">
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="19">
+    <row r="26" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="21">
         <v>9</v>
       </c>
       <c r="K26" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="19"/>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J27" s="21"/>
       <c r="K27" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="19"/>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J28" s="21"/>
       <c r="K28" s="5">
         <v>0.23</v>
       </c>
     </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="19"/>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="21"/>
       <c r="K29" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="19"/>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J30" s="21"/>
       <c r="K30" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="19"/>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J31" s="21"/>
       <c r="K31" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="19"/>
+    <row r="32" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J32" s="21"/>
       <c r="K32" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="19"/>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J33" s="21"/>
       <c r="K33" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="19"/>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J34" s="21"/>
       <c r="K34" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="19"/>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J35" s="21"/>
       <c r="K35" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="19">
+    <row r="37" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J37" s="21">
         <v>12</v>
       </c>
       <c r="K37" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="19"/>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J38" s="21"/>
       <c r="K38" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="19"/>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J39" s="21"/>
       <c r="K39" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="19"/>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J40" s="21"/>
       <c r="K40" s="5">
         <v>0.39</v>
       </c>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="19"/>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J41" s="21"/>
       <c r="K41" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="19"/>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J42" s="21"/>
       <c r="K42" s="5">
         <v>0.39</v>
       </c>
     </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="19"/>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J43" s="21"/>
       <c r="K43" s="5">
         <v>0.39</v>
       </c>
     </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="19"/>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J44" s="21"/>
       <c r="K44" s="5">
         <v>0.38</v>
       </c>
     </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="19"/>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="21"/>
       <c r="K45" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="19"/>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="21"/>
       <c r="K46" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="19">
+    <row r="48" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="21">
         <v>15</v>
       </c>
       <c r="K48" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="19"/>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="21"/>
       <c r="K49" s="5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="19"/>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J50" s="21"/>
       <c r="K50" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="19"/>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J51" s="21"/>
       <c r="K51" s="5">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="19"/>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J52" s="21"/>
       <c r="K52" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="19"/>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J53" s="21"/>
       <c r="K53" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="19"/>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J54" s="21"/>
       <c r="K54" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="19"/>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J55" s="21"/>
       <c r="K55" s="5">
         <v>0.62</v>
       </c>
     </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="19"/>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J56" s="21"/>
       <c r="K56" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="19"/>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J57" s="21"/>
       <c r="K57" s="5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="19"/>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J58" s="21"/>
       <c r="K58" s="5">
         <v>0.61</v>
       </c>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="19">
+    <row r="60" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J60" s="21">
         <v>18</v>
       </c>
       <c r="K60" s="5">
         <v>0.93</v>
       </c>
     </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="19"/>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J61" s="21"/>
       <c r="K61" s="5">
         <v>0.94</v>
       </c>
     </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="19"/>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J62" s="21"/>
       <c r="K62" s="5">
         <v>0.94</v>
       </c>
     </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="19"/>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J63" s="21"/>
       <c r="K63" s="5">
         <v>0.94</v>
       </c>
     </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J64" s="19"/>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J64" s="21"/>
       <c r="K64" s="5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65" s="19"/>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J65" s="21"/>
       <c r="K65" s="5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J66" s="19"/>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J66" s="21"/>
       <c r="K66" s="5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J67" s="19"/>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J67" s="21"/>
       <c r="K67" s="5">
         <v>0.93</v>
       </c>
     </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J68" s="19"/>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J68" s="21"/>
       <c r="K68" s="5">
         <v>0.94</v>
       </c>
     </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J69" s="19"/>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J69" s="21"/>
       <c r="K69" s="5">
         <v>0.95</v>
       </c>
     </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="19">
+    <row r="71" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J71" s="21">
         <v>21</v>
       </c>
       <c r="K71" s="5">
         <v>1.43</v>
       </c>
     </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="19"/>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J72" s="21"/>
       <c r="K72" s="5">
         <v>1.43</v>
       </c>
     </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J73" s="19"/>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J73" s="21"/>
       <c r="K73" s="5">
         <v>1.43</v>
       </c>
     </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="19"/>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J74" s="21"/>
       <c r="K74" s="5">
         <v>1.44</v>
       </c>
     </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="19"/>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J75" s="21"/>
       <c r="K75" s="5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="19"/>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J76" s="21"/>
       <c r="K76" s="5">
         <v>1.46</v>
       </c>
     </row>
-    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J77" s="19"/>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J77" s="21"/>
       <c r="K77" s="5">
         <v>1.46</v>
       </c>
     </row>
-    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J78" s="19"/>
+    <row r="78" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J78" s="21"/>
       <c r="K78" s="5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J79" s="19"/>
+    <row r="79" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J79" s="21"/>
       <c r="K79" s="5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J80" s="19"/>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J80" s="21"/>
       <c r="K80" s="5">
         <v>1.45</v>
       </c>
     </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J82" s="19">
+    <row r="82" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J82" s="21">
         <v>24</v>
       </c>
       <c r="K82" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J83" s="19"/>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J83" s="21"/>
       <c r="K83" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J84" s="19"/>
+    <row r="84" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J84" s="21"/>
       <c r="K84" s="5">
         <v>2.19</v>
       </c>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J85" s="19"/>
+    <row r="85" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J85" s="21"/>
       <c r="K85" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J86" s="19"/>
+    <row r="86" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J86" s="21"/>
       <c r="K86" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J87" s="19"/>
+    <row r="87" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J87" s="21"/>
       <c r="K87" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J88" s="19"/>
+    <row r="88" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J88" s="21"/>
       <c r="K88" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J89" s="19"/>
+    <row r="89" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J89" s="21"/>
       <c r="K89" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J90" s="19"/>
+    <row r="90" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J90" s="21"/>
       <c r="K90" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J91" s="19"/>
+    <row r="91" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J91" s="21"/>
       <c r="K91" s="5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J93" s="19">
+    <row r="93" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J93" s="21">
         <v>27</v>
       </c>
       <c r="K93" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J94" s="19"/>
+    <row r="94" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J94" s="21"/>
       <c r="K94" s="5">
         <v>3.32</v>
       </c>
     </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J95" s="19"/>
+    <row r="95" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J95" s="21"/>
       <c r="K95" s="5">
         <v>3.31</v>
       </c>
     </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J96" s="19"/>
+    <row r="96" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J96" s="21"/>
       <c r="K96" s="5">
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J97" s="19"/>
+    <row r="97" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J97" s="21"/>
       <c r="K97" s="5">
         <v>3.32</v>
       </c>
     </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J98" s="19"/>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J98" s="21"/>
       <c r="K98" s="5">
         <v>3.32</v>
       </c>
     </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J99" s="19"/>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J99" s="21"/>
       <c r="K99" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J100" s="19"/>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J100" s="21"/>
       <c r="K100" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J101" s="19"/>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="21"/>
       <c r="K101" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J102" s="19"/>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J102" s="21"/>
       <c r="K102" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J103" s="19"/>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J103" s="21"/>
       <c r="K103" s="5">
         <v>3.3</v>
       </c>
     </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="19">
+    <row r="105" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J105" s="21">
         <v>30</v>
       </c>
       <c r="K105" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J106" s="19"/>
+    <row r="106" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J106" s="21"/>
       <c r="K106" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J107" s="19"/>
+    <row r="107" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J107" s="21"/>
       <c r="K107" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J108" s="19"/>
+    <row r="108" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J108" s="21"/>
       <c r="K108" s="5">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J109" s="19"/>
+    <row r="109" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J109" s="21"/>
       <c r="K109" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J110" s="19"/>
+    <row r="110" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J110" s="21"/>
       <c r="K110" s="5">
         <v>4.96</v>
       </c>
     </row>
-    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J111" s="19"/>
+    <row r="111" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J111" s="21"/>
       <c r="K111" s="5">
         <v>4.96</v>
       </c>
     </row>
-    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J112" s="19"/>
+    <row r="112" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J112" s="21"/>
       <c r="K112" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J113" s="19"/>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J113" s="21"/>
       <c r="K113" s="5">
         <v>4.97</v>
       </c>
     </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J114" s="19"/>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J114" s="21"/>
       <c r="K114" s="5">
         <v>4.97</v>
       </c>
@@ -52788,18 +52395,18 @@
       <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
-    <col min="5" max="34" width="9.140625" style="1"/>
-    <col min="35" max="51" width="9.140625" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="34" width="9.1640625" style="1"/>
+    <col min="35" max="51" width="9.1640625" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="38" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -52822,7 +52429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="11">
         <v>1</v>
       </c>
@@ -52845,7 +52452,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="11">
         <v>2</v>
       </c>
@@ -52868,7 +52475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="11">
         <v>3</v>
       </c>
@@ -52891,7 +52498,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="11">
         <v>4</v>
       </c>
@@ -52914,7 +52521,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="11">
         <v>5</v>
       </c>
@@ -52937,7 +52544,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="11">
         <v>6</v>
       </c>
@@ -52960,7 +52567,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="11">
         <v>7</v>
       </c>
@@ -52983,7 +52590,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -53006,7 +52613,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -53029,7 +52636,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="11">
         <v>10</v>
       </c>
@@ -53052,17 +52659,17 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>1</v>
       </c>
@@ -53085,7 +52692,7 @@
         <v>8.6118983931827097E-4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>2</v>
       </c>
@@ -53108,7 +52715,7 @@
         <v>6.8859848955758196E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="12">
         <v>3</v>
       </c>
@@ -53131,7 +52738,7 @@
         <v>2.3226399210317598E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="12">
         <v>4</v>
       </c>
@@ -53154,7 +52761,7 @@
         <v>5.5000961417522497E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="12">
         <v>5</v>
       </c>
@@ -53177,7 +52784,7 @@
         <v>0.10731213679285399</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="12">
         <v>6</v>
       </c>
@@ -53200,7 +52807,7 @@
         <v>0.18514914705479199</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="12">
         <v>7</v>
       </c>
@@ -53223,7 +52830,7 @@
         <v>0.29348922399098099</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <v>8</v>
       </c>
@@ -53246,7 +52853,7 @@
         <v>0.43737963091159199</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="12">
         <v>9</v>
       </c>
@@ -53269,7 +52876,7 @@
         <v>0.62111720194480402</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="12">
         <v>10</v>
       </c>
@@ -53292,17 +52899,17 @@
         <v>0.850780080604019</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="12">
         <v>1</v>
       </c>
@@ -53325,7 +52932,7 @@
         <v>1.29178475897741E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="12">
         <v>2</v>
       </c>
@@ -53348,7 +52955,7 @@
         <v>1.03289773433637E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="12">
         <v>3</v>
       </c>
@@ -53371,7 +52978,7 @@
         <v>3.4839598815476498E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="12">
         <v>4</v>
       </c>
@@ -53394,7 +53001,7 @@
         <v>8.25014421262837E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="12">
         <v>5</v>
       </c>
@@ -53417,7 +53024,7 @@
         <v>0.16096820518928001</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="12">
         <v>6</v>
       </c>
@@ -53440,7 +53047,7 @@
         <v>0.27772372058218903</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="12">
         <v>7</v>
       </c>
@@ -53463,7 +53070,7 @@
         <v>0.44023383598647398</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="12">
         <v>8</v>
       </c>
@@ -53486,7 +53093,7 @@
         <v>0.65606944636738695</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="12">
         <v>9</v>
       </c>
@@ -53509,7 +53116,7 @@
         <v>0.93167580291720398</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="12">
         <v>10</v>
       </c>
@@ -53532,14 +53139,14 @@
         <v>1.2761701209060401</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="13">
         <v>1</v>
       </c>
@@ -53554,7 +53161,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
         <v>2</v>
       </c>
@@ -53569,7 +53176,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="13">
         <v>3</v>
       </c>
@@ -53584,7 +53191,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="13">
         <v>4</v>
       </c>
@@ -53599,7 +53206,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="13">
         <v>5</v>
       </c>
@@ -53614,7 +53221,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="13">
         <v>6</v>
       </c>
@@ -53629,7 +53236,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="13">
         <v>7</v>
       </c>
@@ -53644,7 +53251,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="13">
         <v>8</v>
       </c>
@@ -53659,7 +53266,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="13">
         <v>9</v>
       </c>
@@ -53674,7 +53281,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="13">
         <v>10</v>
       </c>
@@ -53700,30 +53307,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A49A338-C2D7-405F-B45E-FD94AA1D1457}">
   <dimension ref="A6:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O18"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="22"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="K7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -53736,18 +53354,24 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="22">
         <v>9</v>
       </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>99990</v>
       </c>
       <c r="D9">
@@ -53770,10 +53394,10 @@
         <f>E9-H9</f>
         <v>7.4109052228266137E-12</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="22">
         <v>2.6649386017021102</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="22">
         <f>ABS(K9-G9)</f>
         <v>9.0514849545764164E-4</v>
       </c>
@@ -53785,14 +53409,14 @@
         <v>3.3953546429502102E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>99983</v>
       </c>
       <c r="D10">
@@ -53815,11 +53439,11 @@
         <f t="shared" ref="I10:I18" si="1">E10-H10</f>
         <v>3.0237007342392985E-11</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="22">
         <v>1.07169768049425</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L18" si="2">ABS(K10-G10)</f>
+      <c r="L10" s="22">
+        <f t="shared" ref="L10:L51" si="2">ABS(K10-G10)</f>
         <v>5.0117412926640181E-3</v>
       </c>
       <c r="N10">
@@ -53830,14 +53454,14 @@
         <v>7.5174761132398848E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>99982</v>
       </c>
       <c r="D11">
@@ -53860,10 +53484,10 @@
         <f t="shared" si="1"/>
         <v>-1.1148401646288164E-10</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="22">
         <v>0.700671523838715</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="22">
         <f t="shared" si="2"/>
         <v>1.0485627830936317E-2</v>
       </c>
@@ -53875,14 +53499,14 @@
         <v>3.5386702833769823E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>99976</v>
       </c>
       <c r="D12">
@@ -53905,10 +53529,10 @@
         <f t="shared" si="1"/>
         <v>-2.7221397358445643E-10</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="22">
         <v>0.65932725131607794</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="22">
         <f t="shared" si="2"/>
         <v>9.1030927699250475E-3</v>
       </c>
@@ -53920,14 +53544,14 @@
         <v>5.459972739569996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>15</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>99974</v>
       </c>
       <c r="D13">
@@ -53950,10 +53574,10 @@
         <f t="shared" si="1"/>
         <v>2.8101965199311962E-11</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="22">
         <v>0.66059396335292497</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="22">
         <f t="shared" si="2"/>
         <v>1.0292006770594719E-3</v>
       </c>
@@ -53965,14 +53589,14 @@
         <v>9.6445296124503255E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>18</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>99964</v>
       </c>
       <c r="D14">
@@ -53995,10 +53619,10 @@
         <f t="shared" si="1"/>
         <v>6.2543403789305785E-10</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="22">
         <v>0.68833597608346597</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="22">
         <f t="shared" si="2"/>
         <v>1.1766153802393875E-3</v>
       </c>
@@ -54010,14 +53634,14 @@
         <v>1.586993939145076E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>21</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>99960</v>
       </c>
       <c r="D15">
@@ -54040,10 +53664,10 @@
         <f t="shared" si="1"/>
         <v>5.251599155542408E-10</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="22">
         <v>0.77983801281121001</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="22">
         <f t="shared" si="2"/>
         <v>4.691461474907288E-3</v>
       </c>
@@ -54055,14 +53679,14 @@
         <v>8.6111545139999635E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>24</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>2.4E-2</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>99953</v>
       </c>
       <c r="D16">
@@ -54085,10 +53709,10 @@
         <f t="shared" si="1"/>
         <v>6.0368021692625007E-10</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="22">
         <v>0.92530235207037803</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="22">
         <f t="shared" si="2"/>
         <v>7.3344628184777161E-3</v>
       </c>
@@ -54100,14 +53724,14 @@
         <v>1.7577758862379778E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>27</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>2.7E-2</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>99947</v>
       </c>
       <c r="D17">
@@ -54130,10 +53754,10 @@
         <f t="shared" si="1"/>
         <v>-8.4388007692837164E-10</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="22">
         <v>1.08435793228766</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="22">
         <f t="shared" si="2"/>
         <v>3.9088334340544595E-3</v>
       </c>
@@ -54145,14 +53769,14 @@
         <v>1.1852930493359892E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>0.03</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>99959</v>
       </c>
       <c r="D18">
@@ -54175,10 +53799,10 @@
         <f t="shared" si="1"/>
         <v>-1.6524692725283785E-9</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="22">
         <v>1.3195814130433501</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="22">
         <f t="shared" si="2"/>
         <v>7.4759048450379062E-4</v>
       </c>
@@ -54186,12 +53810,17 @@
         <v>4.9428002747050099</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f>ABS(N18-E18)</f>
         <v>2.8002747050095422E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K19" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D20">
@@ -54214,8 +53843,22 @@
         <f>E20-H20</f>
         <v>-3.6460001684446297E-12</v>
       </c>
+      <c r="K20" s="22">
+        <v>97.133406930001101</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="2"/>
+        <v>2.085016603814438E-9</v>
+      </c>
+      <c r="N20" s="23">
+        <v>0.17000000000364901</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O19:O51" si="5">ABS(N20-E20)</f>
+        <v>3.6489977706111176E-12</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D21">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -54233,11 +53876,25 @@
         <v>0.21999999996637401</v>
       </c>
       <c r="I21">
-        <f t="shared" ref="I21:I29" si="5">E21-H21</f>
+        <f t="shared" ref="I21:I29" si="6">E21-H21</f>
         <v>3.3625990880636891E-11</v>
       </c>
+      <c r="K21" s="22">
+        <v>15.7313540601924</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="2"/>
+        <v>2.2121007248188107E-9</v>
+      </c>
+      <c r="N21" s="23">
+        <v>0.219999999969064</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>3.0936003758696984E-11</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -54255,11 +53912,25 @@
         <v>0.30000000000851101</v>
       </c>
       <c r="I22">
+        <f t="shared" si="6"/>
+        <v>-8.5110252179276813E-12</v>
+      </c>
+      <c r="K22" s="22">
+        <v>6.3658460271277599</v>
+      </c>
+      <c r="L22" s="22">
+        <f t="shared" si="2"/>
+        <v>3.0837377096304408E-10</v>
+      </c>
+      <c r="N22" s="23">
+        <v>0.30000000001453297</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="5"/>
-        <v>-8.5110252179276813E-12</v>
+        <v>1.4532985925796993E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>1.2E-2</v>
       </c>
@@ -54277,11 +53948,25 @@
         <v>0.36000000002966898</v>
       </c>
       <c r="I23">
+        <f t="shared" si="6"/>
+        <v>-2.966898948741914E-11</v>
+      </c>
+      <c r="K23" s="22">
+        <v>3.23079564006935</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="2"/>
+        <v>3.3562708168233257E-10</v>
+      </c>
+      <c r="N23" s="23">
+        <v>0.36000000003739802</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="5"/>
-        <v>-2.966898948741914E-11</v>
+        <v>3.7398029117952092E-11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -54299,11 +53984,25 @@
         <v>0.39999999999429298</v>
       </c>
       <c r="I24">
+        <f t="shared" si="6"/>
+        <v>5.7070459469343859E-12</v>
+      </c>
+      <c r="K24" s="22">
+        <v>1.84292989512323</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="2"/>
+        <v>9.6938901350540618E-11</v>
+      </c>
+      <c r="N24" s="23">
+        <v>0.40000000002104302</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="5"/>
-        <v>5.7070459469343859E-12</v>
+        <v>2.1043000675291523E-11</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D25">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -54321,11 +54020,25 @@
         <v>0.450000000126488</v>
       </c>
       <c r="I25">
+        <f t="shared" si="6"/>
+        <v>-1.2648798675130024E-10</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1.2045548511339299</v>
+      </c>
+      <c r="L25" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7251491608335527E-10</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0.45000000017652297</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="5"/>
-        <v>-1.2648798675130024E-10</v>
+        <v>1.7652296291359448E-10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -54343,11 +54056,25 @@
         <v>0.47000000023004002</v>
       </c>
       <c r="I26">
+        <f t="shared" si="6"/>
+        <v>-2.3004004257032307E-10</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0.795031503923042</v>
+      </c>
+      <c r="L26" s="22">
+        <f t="shared" si="2"/>
+        <v>3.121639613468119E-10</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0.47000000018454702</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="5"/>
-        <v>-2.3004004257032307E-10</v>
+        <v>1.8454704431292157E-10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D27">
         <v>2.4E-2</v>
       </c>
@@ -54365,11 +54092,25 @@
         <v>0.489999999857478</v>
       </c>
       <c r="I27">
+        <f t="shared" si="6"/>
+        <v>1.4252199420639045E-10</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0.55904706589490205</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="2"/>
+        <v>2.6770508032569751E-10</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0.48999999976536102</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="5"/>
-        <v>1.4252199420639045E-10</v>
+        <v>2.3463897491637908E-10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>2.7E-2</v>
       </c>
@@ -54387,11 +54128,25 @@
         <v>0.50000000058216898</v>
       </c>
       <c r="I28">
+        <f t="shared" si="6"/>
+        <v>-5.8216897969032289E-10</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0.40324703200963102</v>
+      </c>
+      <c r="L28" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7914655576519749E-10</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0.50000000059410898</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="5"/>
-        <v>-5.8216897969032289E-10</v>
+        <v>5.9410898423095659E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D29">
         <v>0.03</v>
       </c>
@@ -54409,12 +54164,26 @@
         <v>0.52999999944728104</v>
       </c>
       <c r="I29">
+        <f t="shared" si="6"/>
+        <v>5.5271898169451106E-10</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0.31271833204459698</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="2"/>
+        <v>2.8152735698228071E-10</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.52999999952286603</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="5"/>
-        <v>5.5271898169451106E-10</v>
+        <v>4.7713399897730824E-10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D31">
@@ -54437,8 +54206,22 @@
         <f>E31-H31</f>
         <v>-3.2644997816078103E-11</v>
       </c>
+      <c r="K31" s="22">
+        <v>114.259218900127</v>
+      </c>
+      <c r="L31" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4994207592499151E-8</v>
+      </c>
+      <c r="N31">
+        <v>0.150000000032813</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>3.2813002315279505E-11</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -54449,18 +54232,32 @@
         <v>1.04943276607366E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G50" si="6">E32/F32</f>
+        <f t="shared" ref="G32:G50" si="7">E32/F32</f>
         <v>19.057914567340845</v>
       </c>
       <c r="H32">
         <v>0.20000000002790699</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I40" si="7">E32-H32</f>
+        <f t="shared" ref="I32:I40" si="8">E32-H32</f>
         <v>-2.7906982280612169E-11</v>
       </c>
+      <c r="K32" s="22">
+        <v>19.057914570257299</v>
+      </c>
+      <c r="L32" s="22">
+        <f t="shared" si="2"/>
+        <v>2.9164546333504404E-9</v>
+      </c>
+      <c r="N32">
+        <v>0.200000000030604</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>3.0603991563182831E-11</v>
+      </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D33">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -54471,18 +54268,32 @@
         <v>3.5386281998391798E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.064884635559106</v>
       </c>
       <c r="H33">
         <v>0.25000000001559902</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.5599022074042068E-11</v>
       </c>
+      <c r="K33" s="22">
+        <v>7.0648846361443702</v>
+      </c>
+      <c r="L33" s="22">
+        <f t="shared" si="2"/>
+        <v>5.8526428148297782E-10</v>
+      </c>
+      <c r="N33">
+        <v>0.25000000002070899</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>2.0708990078333045E-11</v>
+      </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>1.2E-2</v>
       </c>
@@ -54493,18 +54304,32 @@
         <v>8.3761968194736802E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7009636554777003</v>
       </c>
       <c r="H34">
         <v>0.309999999959988</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0011993718280792E-11</v>
       </c>
+      <c r="K34" s="22">
+        <v>3.70096365504924</v>
+      </c>
+      <c r="L34" s="22">
+        <f t="shared" si="2"/>
+        <v>4.2846037828780936E-10</v>
+      </c>
+      <c r="N34">
+        <v>0.30999999996411098</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>3.5889013982881579E-11</v>
+      </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D35">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -54515,18 +54340,32 @@
         <v>0.16333366480934899</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2040771595997035</v>
       </c>
       <c r="H35">
         <v>0.36000000006538302</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6.5383032321619794E-11</v>
       </c>
+      <c r="K35" s="22">
+        <v>2.2040771600713902</v>
+      </c>
+      <c r="L35" s="22">
+        <f t="shared" si="2"/>
+        <v>4.7168668970698491E-10</v>
+      </c>
+      <c r="N35">
+        <v>0.36000000007704103</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>7.7041040213998713E-11</v>
+      </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -54537,18 +54376,32 @@
         <v>0.28161244668250901</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4559015584358586</v>
       </c>
       <c r="H36">
         <v>0.40999999987725999</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2273998484246817E-10</v>
       </c>
+      <c r="K36" s="22">
+        <v>1.45590155805621</v>
+      </c>
+      <c r="L36" s="22">
+        <f t="shared" si="2"/>
+        <v>3.7964853483174466E-10</v>
+      </c>
+      <c r="N36">
+        <v>0.409999999893089</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>1.0691098006887501E-10</v>
+      </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D37">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -54559,18 +54412,32 @@
         <v>0.44597962405316199</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94174706051129997</v>
       </c>
       <c r="H37">
         <v>0.42000000021794998</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.1794999138791127E-10</v>
       </c>
+      <c r="K37" s="22">
+        <v>0.94174706089188498</v>
+      </c>
+      <c r="L37" s="22">
+        <f t="shared" si="2"/>
+        <v>3.8058500795301597E-10</v>
+      </c>
+      <c r="N37">
+        <v>0.42000000016973399</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>1.6973400462916288E-10</v>
+      </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>2.4E-2</v>
       </c>
@@ -54581,18 +54448,32 @@
         <v>0.663876757058114</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66277361772658594</v>
       </c>
       <c r="H38">
         <v>0.44000000018151297</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.8151297132007471E-10</v>
       </c>
+      <c r="K38" s="22">
+        <v>0.66277361784136701</v>
+      </c>
+      <c r="L38" s="22">
+        <f t="shared" si="2"/>
+        <v>1.1478107353468658E-10</v>
+      </c>
+      <c r="N38">
+        <v>0.44000000007620299</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>7.6202988363860413E-11</v>
+      </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D39">
         <v>2.7E-2</v>
       </c>
@@ -54603,18 +54484,32 @@
         <v>0.94296846958069402</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49842599743445609</v>
       </c>
       <c r="H39">
         <v>0.46999999959032102</v>
       </c>
       <c r="I39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0967895742483051E-10</v>
       </c>
+      <c r="K39" s="22">
+        <v>0.49842599681778699</v>
+      </c>
+      <c r="L39" s="22">
+        <f t="shared" si="2"/>
+        <v>6.1666910466939839E-10</v>
+      </c>
+      <c r="N39">
+        <v>0.46999999941850001</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>5.8149995929568377E-10</v>
+      </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D40">
         <v>0.03</v>
       </c>
@@ -54625,19 +54520,43 @@
         <v>1.2887240218966101</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38022104940580598</v>
       </c>
       <c r="H40">
         <v>0.48999999947703399</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.2296600383527903E-10</v>
       </c>
+      <c r="K40" s="22">
+        <v>0.38022104880963098</v>
+      </c>
+      <c r="L40" s="22">
+        <f t="shared" si="2"/>
+        <v>5.9617499825748155E-10</v>
+      </c>
+      <c r="N40">
+        <v>0.48999999923169801</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>7.6830197759392149E-10</v>
+      </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L41" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D42">
@@ -54650,7 +54569,7 @@
         <v>1.0503085436372301E-3</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>247.54630586895649</v>
       </c>
       <c r="H42">
@@ -54660,8 +54579,22 @@
         <f>E42-H42</f>
         <v>-3.2604974276040366E-11</v>
       </c>
+      <c r="K42" s="22">
+        <v>247.54630590020699</v>
+      </c>
+      <c r="L42" s="22">
+        <f t="shared" si="2"/>
+        <v>3.1250493748302688E-8</v>
+      </c>
+      <c r="N42">
+        <v>0.26000000003282397</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>3.2823965767647678E-11</v>
+      </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D43">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -54672,18 +54605,32 @@
         <v>8.3975425555802095E-3</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.106386229309237</v>
       </c>
       <c r="H43">
         <v>0.32000000000580198</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I51" si="8">E43-H43</f>
+        <f t="shared" ref="I43:I51" si="9">E43-H43</f>
         <v>-5.8019700155398368E-12</v>
       </c>
+      <c r="K43" s="22">
+        <v>38.106386230574799</v>
+      </c>
+      <c r="L43" s="22">
+        <f t="shared" si="2"/>
+        <v>1.2655618775170296E-9</v>
+      </c>
+      <c r="N43">
+        <v>0.32000000001062801</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>1.062799848128293E-11</v>
+      </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -54694,18 +54641,32 @@
         <v>2.8324877085753101E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.062722174568703</v>
       </c>
       <c r="H44">
         <v>0.36999999987059401</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2940598592692254E-10</v>
       </c>
+      <c r="K44" s="22">
+        <v>13.062722170295499</v>
+      </c>
+      <c r="L44" s="22">
+        <f t="shared" si="2"/>
+        <v>4.2732040128612425E-9</v>
+      </c>
+      <c r="N44">
+        <v>0.36999999987896398</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>1.2103601454427348E-10</v>
+      </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D45">
         <v>1.2E-2</v>
       </c>
@@ -54716,18 +54677,32 @@
         <v>6.7074343192100094E-2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1126204221749143</v>
       </c>
       <c r="H45">
         <v>0.40999999998827003</v>
       </c>
       <c r="I45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1729950344374629E-11</v>
       </c>
+      <c r="K45" s="22">
+        <v>6.1126204220395302</v>
+      </c>
+      <c r="L45" s="22">
+        <f t="shared" si="2"/>
+        <v>1.3538414833647039E-10</v>
+      </c>
+      <c r="N45">
+        <v>0.40999999999092002</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>9.0799590068968428E-12</v>
+      </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D46">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -54738,18 +54713,32 @@
         <v>0.130868459503481</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4385672583547939</v>
       </c>
       <c r="H46">
         <v>0.44999999995356299</v>
       </c>
       <c r="I46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6437020895240266E-11</v>
       </c>
+      <c r="K46" s="22">
+        <v>3.4385672580817799</v>
+      </c>
+      <c r="L46" s="22">
+        <f t="shared" si="2"/>
+        <v>2.7301405580715254E-10</v>
+      </c>
+      <c r="N46">
+        <v>0.44999999996426898</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>3.5731029246477419E-11</v>
+      </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D47">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -54760,18 +54749,32 @@
         <v>0.225791642749748</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2144309413354408</v>
       </c>
       <c r="H47">
         <v>0.49999999992425698</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.5743022964758211E-11</v>
       </c>
+      <c r="K47" s="22">
+        <v>2.2144309410077798</v>
+      </c>
+      <c r="L47" s="22">
+        <f t="shared" si="2"/>
+        <v>3.2766100943604215E-10</v>
+      </c>
+      <c r="N47">
+        <v>0.49999999992601502</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>7.3984984805264276E-11</v>
+      </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D48">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -54782,18 +54785,32 @@
         <v>0.35791368779388</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4808039426120616</v>
       </c>
       <c r="H48">
         <v>0.53000000013885196</v>
       </c>
       <c r="I48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.3885192995388707E-10</v>
       </c>
+      <c r="K48" s="22">
+        <v>1.4808039424731301</v>
+      </c>
+      <c r="L48" s="22">
+        <f t="shared" si="2"/>
+        <v>1.3893153294475269E-10</v>
+      </c>
+      <c r="N48">
+        <v>0.52999999995027602</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>4.9724002693096736E-11</v>
+      </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D49">
         <v>2.4E-2</v>
       </c>
@@ -54804,18 +54821,32 @@
         <v>0.53338979379462403</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0686368705050107</v>
       </c>
       <c r="H49">
         <v>0.57000000026401898</v>
       </c>
       <c r="I49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.6401902886163953E-10</v>
       </c>
+      <c r="K49" s="22">
+        <v>1.06863687044688</v>
+      </c>
+      <c r="L49" s="22">
+        <f t="shared" si="2"/>
+        <v>5.8130611435558421E-11</v>
+      </c>
+      <c r="N49">
+        <v>0.56999999996898998</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>3.1009972367712635E-11</v>
+      </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D50">
         <v>2.7E-2</v>
       </c>
@@ -54826,18 +54857,32 @@
         <v>0.75746000237171396</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7921210336140726</v>
       </c>
       <c r="H50">
         <v>0.60000000029232303</v>
       </c>
       <c r="I50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.9232305465143327E-10</v>
       </c>
+      <c r="K50" s="22">
+        <v>0.79212103370082299</v>
+      </c>
+      <c r="L50" s="22">
+        <f t="shared" si="2"/>
+        <v>8.6750384653555557E-11</v>
+      </c>
+      <c r="N50">
+        <v>0.60000000006570597</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>6.5705996199483252E-11</v>
+      </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D51">
         <v>0.03</v>
       </c>
@@ -54855,12 +54900,27 @@
         <v>0.64999999996104996</v>
       </c>
       <c r="I51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8950065395226829E-11</v>
+      </c>
+      <c r="K51" s="22">
+        <v>0.62648387271724504</v>
+      </c>
+      <c r="L51" s="22">
+        <f t="shared" si="2"/>
+        <v>3.2029801033672811E-10</v>
+      </c>
+      <c r="N51">
+        <v>0.64999999966768096</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
+        <v>3.3231906115815946E-10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>